--- a/TimeTables/CSE_Sem_5.xlsx
+++ b/TimeTables/CSE_Sem_5.xlsx
@@ -766,11 +766,31 @@
     </row>
     <row r="10" ht="15.6" customHeight="1" s="23">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="10" t="n"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>SEMP - 1</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>SEMP TUT - 1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16.2" customHeight="1" s="23" thickBot="1">
       <c r="A11" s="15" t="n"/>
@@ -794,13 +814,29 @@
     </row>
     <row r="13" ht="15.6" customHeight="1" s="23">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>SEMP - 1</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>SEMP TUT - 1</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>SEMP TUT - 1</t>
+          <t>AI</t>
         </is>
       </c>
     </row>
@@ -862,21 +898,29 @@
     </row>
     <row r="19" ht="15.6" customHeight="1" s="23">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AI LAB</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>DBMS LAB</t>
+        </is>
+      </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DBMS</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DBMS</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DBMS</t>
         </is>
       </c>
     </row>
@@ -902,21 +946,29 @@
     </row>
     <row r="22" ht="15.6" customHeight="1" s="23">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>CN LAB</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="F22" s="10" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>CO</t>
         </is>
       </c>
     </row>
@@ -942,21 +994,29 @@
     </row>
     <row r="25" ht="15.6" customHeight="1" s="23">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>DBMS</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>DBMS</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>DBMS</t>
+          <t>PSE</t>
         </is>
       </c>
     </row>

--- a/TimeTables/CSE_Sem_5.xlsx
+++ b/TimeTables/CSE_Sem_5.xlsx
@@ -1218,7 +1218,7 @@
     <row r="33" ht="19.2" customHeight="1" s="34">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>CSE_101</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C33" s="14" t="inlineStr">
@@ -1235,7 +1235,7 @@
     <row r="34" ht="18.6" customHeight="1" s="34">
       <c r="B34" s="15" t="inlineStr">
         <is>
-          <t>CSE_102</t>
+          <t>SEMP LAB - 1</t>
         </is>
       </c>
       <c r="C34" s="15" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="35" ht="21.6" customHeight="1" s="34">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>CSE_103</t>
+          <t>SEMP TUT - 1</t>
         </is>
       </c>
       <c r="C35" s="14" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="36" ht="17.4" customHeight="1" s="34">
       <c r="B36" s="15" t="inlineStr">
         <is>
-          <t>CSE_104</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="C36" s="15" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="37" ht="19.8" customHeight="1" s="34">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>CSE_105</t>
+          <t>DBMS</t>
         </is>
       </c>
       <c r="C37" s="14" t="inlineStr">
@@ -1303,7 +1303,7 @@
     <row r="38" ht="19.2" customHeight="1" s="34">
       <c r="B38" s="15" t="inlineStr">
         <is>
-          <t>CSE_106</t>
+          <t>DBMS LAB</t>
         </is>
       </c>
       <c r="C38" s="15" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="39" ht="18" customHeight="1" s="34">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>CSE_107</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C39" s="14" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="40" ht="19.2" customHeight="1" s="34">
       <c r="B40" s="15" t="inlineStr">
         <is>
-          <t>CSE_108</t>
+          <t>AI LAB</t>
         </is>
       </c>
       <c r="C40" s="15" t="inlineStr">
@@ -1354,7 +1354,7 @@
     <row r="41" ht="19.8" customHeight="1" s="34">
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>CSE_109</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C41" s="14" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="42" ht="19.8" customHeight="1" s="34">
       <c r="B42" s="15" t="inlineStr">
         <is>
-          <t>CSE_110</t>
+          <t>CN LAB</t>
         </is>
       </c>
       <c r="C42" s="15" t="inlineStr">

--- a/TimeTables/CSE_Sem_5.xlsx
+++ b/TimeTables/CSE_Sem_5.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>DBMS</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>DBMS</t>
         </is>
       </c>
     </row>
@@ -1090,22 +1090,22 @@
       <c r="A22" s="46" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
+          <t>DBMS</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>CO</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>DBMS</t>
         </is>
       </c>
       <c r="F22" s="10" t="inlineStr">
@@ -1138,12 +1138,12 @@
       <c r="A25" s="46" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>DBMS</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>DBMS</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
